--- a/output/demo/evaluate/multiple_slices2D_results/evaluate_metric_pred_label_fibre_num.xlsx
+++ b/output/demo/evaluate/multiple_slices2D_results/evaluate_metric_pred_label_fibre_num.xlsx
@@ -442,12 +442,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11</v>
+        <v>1311</v>
       </c>
     </row>
   </sheetData>
